--- a/data/trans_bre/P23_1_R_2016_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R_2016_2023-Estudios-trans_bre.xlsx
@@ -598,7 +598,7 @@
         <v>-0.552031253840537</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.6211854835539211</v>
+        <v>-0.6211854835539212</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.15124550005105</v>
+        <v>-19.19748738898719</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.87997985516579</v>
+        <v>-19.60553086325926</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.634046982132721</v>
+        <v>-0.6349910403841252</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.7007807050234632</v>
+        <v>-0.6947026666921626</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-11.45327170005748</v>
+        <v>-11.03643610146984</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-11.68824049969402</v>
+        <v>-11.81895735565723</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.4502855862146044</v>
+        <v>-0.4366358718137532</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.5218841580389461</v>
+        <v>-0.52393198602021</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-5.252762451221016</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-4.782071242617208</v>
+        <v>-4.782071242617206</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1441939316318352</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.1842857243811824</v>
+        <v>-0.1842857243811823</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.293479394595098</v>
+        <v>-8.411336287552777</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.323971716492162</v>
+        <v>-7.47122930859079</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2191023629474481</v>
+        <v>-0.2211052858508374</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2655259075343737</v>
+        <v>-0.2741060539575617</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.195158111555378</v>
+        <v>-2.36943734937391</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.109303570800293</v>
+        <v>-2.033412536732288</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.06032952140859724</v>
+        <v>-0.06751558873976952</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.08432222573396063</v>
+        <v>-0.08698175550135767</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-3.000837595746864</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-1.247320784391083</v>
+        <v>-1.247320784391077</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.1384699814511614</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.09075179442721011</v>
+        <v>-0.09075179442720975</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.274005394816218</v>
+        <v>-7.66718375648561</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.000999741363223</v>
+        <v>-4.670899061362698</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.3387192832743411</v>
+        <v>-0.3220818349863445</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3070079501619177</v>
+        <v>-0.306722534301698</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.065936194655298</v>
+        <v>1.916615314047885</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.239768935163033</v>
+        <v>2.40220385953828</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.1178066969027631</v>
+        <v>0.09964923992571026</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1913662119740509</v>
+        <v>0.2094434820776457</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-8.131176891198949</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-6.45432425675648</v>
+        <v>-6.454324256756474</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.2535617065461009</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.2764729936540675</v>
+        <v>-0.2764729936540673</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-10.28722111446926</v>
+        <v>-10.4038906506538</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.485230472776317</v>
+        <v>-8.447253494378611</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3101189649038471</v>
+        <v>-0.3121231736796419</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3443298312774626</v>
+        <v>-0.3448155768864357</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-5.87633160532207</v>
+        <v>-6.051616013366985</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-4.736485382434695</v>
+        <v>-4.595928119769368</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1902249213139398</v>
+        <v>-0.1951453656252195</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2129792311299417</v>
+        <v>-0.2084061292484214</v>
       </c>
     </row>
     <row r="16">
